--- a/dailylog.xlsx
+++ b/dailylog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITS2023\gitcolab\ITSSWREPO\dailylog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F518B-C6C3-4AB0-A3FC-7C08DE265BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C28C9-102F-4735-9FED-84C2B591838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,48 @@
   </si>
   <si>
     <t>Date &amp; Report issue</t>
+  </si>
+  <si>
+    <t>Annapurneswari lab</t>
+  </si>
+  <si>
+    <t>Test Creation</t>
+  </si>
+  <si>
+    <t>Advaita polytechnic</t>
+  </si>
+  <si>
+    <t>Name change &amp; mail</t>
+  </si>
+  <si>
+    <t>Anydesk</t>
+  </si>
+  <si>
+    <t>282 493 214</t>
+  </si>
+  <si>
+    <t>kubra nursing home</t>
+  </si>
+  <si>
+    <t>Re-installation</t>
+  </si>
+  <si>
+    <t>Ashwini lab</t>
+  </si>
+  <si>
+    <t>In Report amount not showing</t>
+  </si>
+  <si>
+    <t>Skanda Lab</t>
+  </si>
+  <si>
+    <t>Mail rpt header</t>
+  </si>
+  <si>
+    <t>SHS lab</t>
+  </si>
+  <si>
+    <t>Report erorr</t>
   </si>
 </sst>
 </file>
@@ -265,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +340,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +564,8 @@
   </sheetPr>
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1109,13 +1154,13 @@
         <v>52</v>
       </c>
       <c r="I19" s="1">
-        <v>7483536027</v>
+        <v>9108464458</v>
       </c>
       <c r="M19" t="s">
         <v>56</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
@@ -1166,7 +1211,7 @@
         <v>52</v>
       </c>
       <c r="I21" s="1">
-        <v>7483536027</v>
+        <v>9108464458</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -1192,6 +1237,21 @@
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
+      <c r="G22" s="12">
+        <v>44996</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8197816681</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1201,6 +1261,27 @@
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
+      <c r="G23" s="12">
+        <v>44996</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9483491342</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>832388342</v>
+      </c>
+      <c r="M23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1210,6 +1291,30 @@
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
+      <c r="G24" s="12">
+        <v>44996</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6364132225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1219,6 +1324,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
+      <c r="G25" s="12">
+        <v>44997</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1228,6 +1343,24 @@
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
+      <c r="G26" s="12">
+        <v>44998</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="1">
+        <v>9980423641</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1237,6 +1370,30 @@
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
+      <c r="G27" s="12">
+        <v>44999</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9663855462</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27">
+        <v>793718041</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1246,10 +1403,58 @@
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
+      <c r="G28" s="12">
+        <v>44999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="1">
+        <v>9886410873</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28">
+        <v>484406818</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45011</v>
+      </c>
+      <c r="G29" s="12">
+        <v>44999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="1">
+        <v>9901909968</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29">
+        <v>434591205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/dailylog.xlsx
+++ b/dailylog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITS2023\gitcolab\ITSSWREPO\dailylog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C28C9-102F-4735-9FED-84C2B591838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385637E5-2BF6-4DB3-826C-592521B0AFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,30 @@
   </si>
   <si>
     <t>Report erorr</t>
+  </si>
+  <si>
+    <t>SMOT hospital</t>
+  </si>
+  <si>
+    <t>Installed ON</t>
+  </si>
+  <si>
+    <t>Rust-Desk</t>
+  </si>
+  <si>
+    <t>Kunigal</t>
+  </si>
+  <si>
+    <t>A-One Diagnostics Center</t>
+  </si>
+  <si>
+    <t>AnyDesk</t>
+  </si>
+  <si>
+    <t>Reinstallation</t>
+  </si>
+  <si>
+    <t>Date Problem</t>
   </si>
 </sst>
 </file>
@@ -307,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,26 +589,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,19 +639,22 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44986</v>
       </c>
@@ -633,14 +668,15 @@
       <c r="G3" s="12">
         <v>44986</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="9"/>
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44987</v>
       </c>
@@ -654,14 +690,15 @@
       <c r="G4" s="12">
         <v>44987</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="9"/>
+      <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>44988</v>
       </c>
@@ -686,20 +723,20 @@
       <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44989</v>
       </c>
@@ -721,20 +758,20 @@
       <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="1">
         <v>237436214</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44990</v>
       </c>
@@ -747,8 +784,9 @@
         <v>44990</v>
       </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44991</v>
       </c>
@@ -773,20 +811,20 @@
       <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="9">
         <v>255121246</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44992</v>
       </c>
@@ -811,20 +849,23 @@
       <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="12">
+        <v>44992</v>
+      </c>
+      <c r="L9" s="9">
         <v>2551211246</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44992</v>
       </c>
@@ -849,17 +890,17 @@
       <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44992</v>
       </c>
@@ -884,20 +925,20 @@
       <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="9">
         <v>2551211246</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44993</v>
       </c>
@@ -922,20 +963,20 @@
       <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="9">
         <v>502956122</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44993</v>
       </c>
@@ -960,20 +1001,20 @@
       <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="K13">
+      <c r="L13" s="9">
         <v>502956122</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44993</v>
       </c>
@@ -998,17 +1039,17 @@
       <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="9">
         <v>1618726949</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44993</v>
       </c>
@@ -1033,20 +1074,20 @@
       <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="K15">
+      <c r="L15" s="9">
         <v>987089205</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44994</v>
       </c>
@@ -1071,20 +1112,20 @@
       <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="K16">
+      <c r="L16" s="9">
         <v>621825829</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="N16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44999</v>
       </c>
@@ -1103,11 +1144,12 @@
       <c r="J17" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L17" s="9"/>
+      <c r="O17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45000</v>
       </c>
@@ -1126,20 +1168,20 @@
       <c r="J18" t="s">
         <v>22</v>
       </c>
-      <c r="K18">
+      <c r="L18" s="9">
         <v>215091956</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45001</v>
       </c>
@@ -1156,14 +1198,15 @@
       <c r="I19" s="1">
         <v>9108464458</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" s="9"/>
+      <c r="N19" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45002</v>
       </c>
@@ -1183,20 +1226,20 @@
       <c r="J20" t="s">
         <v>22</v>
       </c>
-      <c r="K20">
+      <c r="L20" s="9">
         <v>434591205</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45003</v>
       </c>
@@ -1216,20 +1259,20 @@
       <c r="J21" t="s">
         <v>22</v>
       </c>
-      <c r="K21">
+      <c r="L21" s="9">
         <v>215091956</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45004</v>
       </c>
@@ -1246,14 +1289,15 @@
       <c r="I22" s="1">
         <v>8197816681</v>
       </c>
-      <c r="M22" t="s">
+      <c r="L22" s="9"/>
+      <c r="N22" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45005</v>
       </c>
@@ -1273,17 +1317,17 @@
       <c r="J23" t="s">
         <v>18</v>
       </c>
-      <c r="K23">
+      <c r="L23" s="9">
         <v>832388342</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45006</v>
       </c>
@@ -1303,20 +1347,20 @@
       <c r="J24" t="s">
         <v>61</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45007</v>
       </c>
@@ -1330,12 +1374,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45008</v>
       </c>
@@ -1355,14 +1399,15 @@
       <c r="J26" t="s">
         <v>18</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L26" s="9"/>
+      <c r="N26" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45009</v>
       </c>
@@ -1382,20 +1427,20 @@
       <c r="J27" t="s">
         <v>61</v>
       </c>
-      <c r="K27">
+      <c r="L27" s="9">
         <v>793718041</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>23</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45010</v>
       </c>
@@ -1415,20 +1460,20 @@
       <c r="J28" t="s">
         <v>61</v>
       </c>
-      <c r="K28">
+      <c r="L28" s="9">
         <v>484406818</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>23</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>68</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45011</v>
       </c>
@@ -1444,32 +1489,101 @@
       <c r="J29" t="s">
         <v>61</v>
       </c>
-      <c r="K29">
+      <c r="L29" s="9">
         <v>434591205</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45012</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="12">
+        <v>45000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9066431873</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="12">
+        <v>44837</v>
+      </c>
+      <c r="L30" s="9">
+        <v>484406818</v>
+      </c>
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45013</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="12">
+        <v>45000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8147847800</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45014</v>
+      </c>
+      <c r="G32" s="12">
+        <v>45000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9535895437</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="12">
+        <v>44585</v>
+      </c>
+      <c r="L32" s="9">
+        <v>281352289</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/dailylog.xlsx
+++ b/dailylog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITS2023\gitcolab\ITSSWREPO\dailylog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385637E5-2BF6-4DB3-826C-592521B0AFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F9CE3-9A9F-42D1-8991-E7450AEC38EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -241,22 +241,144 @@
     <t>Installed ON</t>
   </si>
   <si>
-    <t>Rust-Desk</t>
-  </si>
-  <si>
     <t>Kunigal</t>
   </si>
   <si>
     <t>A-One Diagnostics Center</t>
   </si>
   <si>
-    <t>AnyDesk</t>
-  </si>
-  <si>
     <t>Reinstallation</t>
   </si>
   <si>
     <t>Date Problem</t>
+  </si>
+  <si>
+    <t>Harshita Diagnostics</t>
+  </si>
+  <si>
+    <t>95389 74154</t>
+  </si>
+  <si>
+    <t>Data Clear</t>
+  </si>
+  <si>
+    <t>Rust-desk</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# 10/3 6 th CROSS 8 TH MAIN GANESHA BLOCK, MAHALAKSHMI LAYOUT, BANGALORE- 560096 
+PH. NO, 080 - 23491715, 8050511289, 9141634740,9845151715</t>
+  </si>
+  <si>
+    <t>18-01-2022  V9</t>
+  </si>
+  <si>
+    <t>Nano Diagnostics</t>
+  </si>
+  <si>
+    <t>#249, Ground Floor, Nanjundeshwara Plaza.
+Opp. Nandini Hotel, 24th Main, 5th Phase, J.P.Nagar,Bangalore-78
+Ph: 080 26591898. Mob: 9591276436 , 9902823941(Whatsapp)
+Timings: Mon to Sat: 7.00 AM-8.00 PM, Sun: 7.00 AM-1.00 PM.</t>
+  </si>
+  <si>
+    <t>Email header</t>
+  </si>
+  <si>
+    <t>Medcare Lab</t>
+  </si>
+  <si>
+    <t>#26 Asha Complex, B.B. Nagar, Kodigehalli Road, Sahakar Nagar Post,
+Bangalore-560092. M:9008477711, 9008477722,080-48504433</t>
+  </si>
+  <si>
+    <t>18-07-2017 V9</t>
+  </si>
+  <si>
+    <t>29-03-2022 V9</t>
+  </si>
+  <si>
+    <t>Hirebagewadi</t>
+  </si>
+  <si>
+    <t>report guide</t>
+  </si>
+  <si>
+    <t>High TECH lab Hirebagewadi</t>
+  </si>
+  <si>
+    <t>Lakshmi Diagnostics</t>
+  </si>
+  <si>
+    <t>Sidlagatta 562105 Chikkaballapur</t>
+  </si>
+  <si>
+    <t>Report and Test Guide</t>
+  </si>
+  <si>
+    <t>09-11-2022 V7</t>
+  </si>
+  <si>
+    <t>SB Clinical Lab</t>
+  </si>
+  <si>
+    <t># 28, Opp Govt School , 2 nd Main Road  4th Phase
+Yelahanka New Town Bangalore 560064
+MOB: 8431550126 / 9148788288</t>
+  </si>
+  <si>
+    <t>30-01-2018 V9</t>
+  </si>
+  <si>
+    <t>Bharat Clinical Lab</t>
+  </si>
+  <si>
+    <t>Data copy</t>
+  </si>
+  <si>
+    <t>21-10-19 V9</t>
+  </si>
+  <si>
+    <t>Avalhalli, Anjanapura main road 
+           Bengaluru 560062</t>
+  </si>
+  <si>
+    <t>Gayathri Complex, TM Road, Near kuvempu university 
+  Shankaraghatta, Bhadravthi, Shivamogga -577451
+   Phone:8147103645, E-mail: sjdc929@gmail.com</t>
+  </si>
+  <si>
+    <t>10-01-22 V9</t>
+  </si>
+  <si>
+    <t>Main s/m to client s/m install</t>
+  </si>
+  <si>
+    <t>Shree Jagannath Diagnostics</t>
+  </si>
+  <si>
+    <t>#25/2 1st MAIN ROAD ,K.P AGRAHARA ,NEAR BINNIPETE RAILWAY GATE, KADAPASWAMY MATA ROAD BHUVANESHWARI NAGAR ,BANGLORE -560023 MOB:9480706320</t>
+  </si>
+  <si>
+    <t>17-08-2013 V9</t>
+  </si>
+  <si>
+    <t>15-07-2019 V9</t>
+  </si>
+  <si>
+    <t>Sanjeevini Diagnostics</t>
+  </si>
+  <si>
+    <t>Shree Vinayaka Diagnostics</t>
+  </si>
+  <si>
+    <t>Munnekula Last Bus Stop, Marathahalli Post,Bangalore-37</t>
+  </si>
+  <si>
+    <t>Report adjustment and test ordering</t>
   </si>
 </sst>
 </file>
@@ -331,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +492,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,28 +715,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="12" style="9" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="9"/>
+      <c r="G1"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -626,11 +754,14 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -665,9 +796,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="G3" s="12">
+      <c r="F3" s="12">
         <v>44986</v>
       </c>
+      <c r="G3"/>
       <c r="L3" s="9"/>
       <c r="N3" s="1" t="s">
         <v>12</v>
@@ -687,9 +819,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="G4" s="12">
+      <c r="F4" s="12">
         <v>44987</v>
       </c>
+      <c r="G4"/>
       <c r="L4" s="9"/>
       <c r="N4" s="1" t="s">
         <v>12</v>
@@ -711,10 +844,10 @@
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12">
+      <c r="F5" s="12">
         <v>44988</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -749,9 +882,10 @@
       <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12">
+      <c r="F6" s="12">
         <v>44989</v>
       </c>
+      <c r="G6"/>
       <c r="I6" s="1">
         <v>9380327628</v>
       </c>
@@ -780,9 +914,10 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
-      <c r="G7" s="12">
+      <c r="F7" s="12">
         <v>44990</v>
       </c>
+      <c r="G7"/>
       <c r="I7" s="1"/>
       <c r="L7" s="9"/>
     </row>
@@ -799,10 +934,10 @@
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="12">
+      <c r="F8" s="12">
         <v>44991</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="1">
@@ -837,10 +972,10 @@
       <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="12">
+      <c r="F9" s="12">
         <v>44992</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="1">
@@ -878,10 +1013,10 @@
       <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="12">
+      <c r="F10" s="12">
         <v>44992</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -913,10 +1048,10 @@
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12">
+      <c r="F11" s="12">
         <v>44992</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="1">
@@ -951,10 +1086,10 @@
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="12">
+      <c r="F12" s="12">
         <v>44993</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="1">
@@ -989,10 +1124,10 @@
       <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="12">
+      <c r="F13" s="12">
         <v>44993</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="1">
@@ -1027,10 +1162,10 @@
       <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="12">
+      <c r="F14" s="12">
         <v>44993</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="1">
@@ -1062,10 +1197,10 @@
       <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="12">
+      <c r="F15" s="12">
         <v>44993</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="1">
@@ -1100,10 +1235,10 @@
       <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="12">
+      <c r="F16" s="12">
         <v>44994</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>45</v>
       </c>
       <c r="I16" s="1">
@@ -1132,10 +1267,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
-      <c r="G17" s="12">
+      <c r="F17" s="12">
         <v>44995</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="1">
@@ -1156,10 +1291,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
-      <c r="G18" s="12">
+      <c r="F18" s="12">
         <v>44995</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
       <c r="I18" s="1">
@@ -1189,10 +1324,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
-      <c r="G19" s="12">
+      <c r="F19" s="12">
         <v>44995</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="1">
@@ -1214,10 +1349,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="12">
+      <c r="F20" s="12">
         <v>44995</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>54</v>
       </c>
       <c r="I20" s="1">
@@ -1247,10 +1382,10 @@
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="12">
+      <c r="F21" s="12">
         <v>44995</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="1">
@@ -1280,10 +1415,10 @@
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="12">
+      <c r="F22" s="12">
         <v>44996</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="1">
@@ -1305,10 +1440,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="12">
+      <c r="F23" s="12">
         <v>44996</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="1">
@@ -1335,10 +1470,10 @@
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="12">
+      <c r="F24" s="12">
         <v>44996</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="1">
@@ -1368,10 +1503,10 @@
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="G25" s="12">
+      <c r="F25" s="12">
         <v>44997</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="L25" s="14"/>
@@ -1387,10 +1522,10 @@
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="12">
+      <c r="F26" s="12">
         <v>44998</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="1">
@@ -1415,10 +1550,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="12">
+      <c r="F27" s="12">
         <v>44999</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="1">
@@ -1448,10 +1583,10 @@
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="12">
+      <c r="F28" s="12">
         <v>44999</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="1">
@@ -1477,10 +1612,10 @@
       <c r="A29" s="3">
         <v>45011</v>
       </c>
-      <c r="G29" s="12">
+      <c r="F29" s="12">
         <v>44999</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="1">
@@ -1506,17 +1641,17 @@
       <c r="A30" s="3">
         <v>45012</v>
       </c>
-      <c r="G30" s="12">
+      <c r="F30" s="12">
         <v>45000</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="1">
         <v>9066431873</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K30" s="12">
         <v>44837</v>
@@ -1535,20 +1670,20 @@
       <c r="A31" s="3">
         <v>45013</v>
       </c>
-      <c r="G31" s="12">
+      <c r="F31" s="12">
         <v>45000</v>
       </c>
-      <c r="H31" t="s">
-        <v>74</v>
+      <c r="G31" t="s">
+        <v>73</v>
       </c>
       <c r="I31" s="1">
         <v>8147847800</v>
       </c>
       <c r="J31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" t="s">
         <v>76</v>
-      </c>
-      <c r="N31" t="s">
-        <v>78</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>53</v>
@@ -1558,17 +1693,17 @@
       <c r="A32" s="3">
         <v>45014</v>
       </c>
-      <c r="G32" s="12">
+      <c r="F32" s="12">
         <v>45000</v>
       </c>
-      <c r="H32" t="s">
-        <v>75</v>
+      <c r="G32" t="s">
+        <v>74</v>
       </c>
       <c r="I32" s="1">
         <v>9535895437</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K32" s="12">
         <v>44585</v>
@@ -1580,25 +1715,327 @@
         <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>45015</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="12">
+        <v>45001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="9">
+        <v>606461001</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>45016</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="12">
+        <v>45001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="9">
+        <v>9902823941</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
+        <v>86</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45017</v>
+      </c>
+      <c r="F35" s="12">
+        <v>45002</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9008477722</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" s="9">
+        <v>787935021</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="12">
+        <v>45002</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="1">
+        <v>8310266156</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="N36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="12">
+        <v>45002</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="1">
+        <v>9663246542</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" s="9">
+        <v>484406818</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="12">
+        <v>45003</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6362107789</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="12">
+        <v>45003</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8217256161</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="9">
+        <v>482093684</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="12">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="12">
+        <v>45005</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="1">
+        <v>8147103645</v>
+      </c>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41">
+        <v>727399044</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="12">
+        <v>45005</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="1">
+        <v>9513149582</v>
+      </c>
+      <c r="J42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42">
+        <v>502956122</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" t="s">
+        <v>115</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="12">
+        <v>45005</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="1">
+        <v>7411182883</v>
+      </c>
+      <c r="J43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43">
+        <v>662531945</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" t="s">
+        <v>79</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/dailylog.xlsx
+++ b/dailylog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITS2023\gitcolab\ITSSWREPO\dailylog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F9CE3-9A9F-42D1-8991-E7450AEC38EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6397479-BF03-4855-B64B-EEFF0B81A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Based on</t>
-  </si>
-  <si>
     <t>Client Name</t>
   </si>
   <si>
@@ -52,27 +46,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>SQL(basic)</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>SQL (cntd)</t>
-  </si>
-  <si>
-    <t>C# &amp; Work</t>
-  </si>
-  <si>
-    <t>Amba-bhavani Labs</t>
-  </si>
-  <si>
     <t>-------</t>
   </si>
   <si>
@@ -82,33 +61,18 @@
     <t>P-Done</t>
   </si>
   <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>Haveri Hospital</t>
-  </si>
-  <si>
     <t>Any-Desk</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>V7 Demo</t>
   </si>
   <si>
-    <t>Work</t>
-  </si>
-  <si>
     <t>V7 Install</t>
   </si>
   <si>
-    <t>Dr. Manjunath Challikere</t>
-  </si>
-  <si>
     <t>Package Creation</t>
   </si>
   <si>
@@ -145,13 +109,7 @@
     <t>Data clear</t>
   </si>
   <si>
-    <t>S L N Diagnostics</t>
-  </si>
-  <si>
     <t>Sign Adding</t>
-  </si>
-  <si>
-    <t>Districk Hospital Chitradurga(hitech lab)</t>
   </si>
   <si>
     <t>Icon deleted</t>
@@ -379,6 +337,22 @@
   </si>
   <si>
     <t>Report adjustment and test ordering</t>
+  </si>
+  <si>
+    <t>Haveri hospital</t>
+  </si>
+  <si>
+    <t>S,R ROAD , CHALLAKERE 
+           CHITRADURGA (D), KARNATAKA</t>
+  </si>
+  <si>
+    <t>07-03-2023 V7</t>
+  </si>
+  <si>
+    <t>Report problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
   </si>
 </sst>
 </file>
@@ -715,18 +689,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="9" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
@@ -742,59 +719,45 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>44986</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="7"/>
       <c r="F3" s="12">
         <v>44986</v>
@@ -802,22 +765,16 @@
       <c r="G3"/>
       <c r="L3" s="9"/>
       <c r="N3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>44987</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="7"/>
       <c r="F4" s="12">
         <v>44987</v>
@@ -825,93 +782,75 @@
       <c r="G4"/>
       <c r="L4" s="9"/>
       <c r="N4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>44988</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="12">
         <v>44988</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>44989</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
       <c r="F6" s="12">
         <v>44989</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
       <c r="I6" s="1">
         <v>9380327628</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L6" s="1">
         <v>237436214</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>44990</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
       <c r="F7" s="12">
@@ -922,67 +861,51 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>44991</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.70138888888888895</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="12">
         <v>44991</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1">
         <v>9164413228</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L8" s="9">
         <v>255121246</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>44992</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="12">
         <v>44992</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1">
         <v>9164413228</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K9" s="12">
         <v>44992</v>
@@ -991,279 +914,221 @@
         <v>2551211246</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>44992</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="12">
         <v>44992</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>44992</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="12">
         <v>44992</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1">
         <v>9164413228</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L11" s="9">
         <v>2551211246</v>
       </c>
       <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
         <v>23</v>
       </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>44993</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="12">
         <v>44993</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1">
         <v>9480706320</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L12" s="9">
         <v>502956122</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>44993</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
       <c r="F13" s="12">
         <v>44993</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1">
         <v>9480706320</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L13" s="9">
         <v>502956122</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>44993</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
       <c r="F14" s="12">
         <v>44993</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1">
         <v>9994422107</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L14" s="9">
         <v>1618726949</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>44993</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="12">
         <v>44993</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
         <v>9663802389</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L15" s="9">
         <v>987089205</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>44994</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
       <c r="F16" s="12">
         <v>44994</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1">
         <v>9901811611</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L16" s="9">
         <v>621825829</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>44999</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
@@ -1271,23 +1136,21 @@
         <v>44995</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1">
         <v>9483491342</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L17" s="9"/>
       <c r="O17" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>45000</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
@@ -1295,31 +1158,29 @@
         <v>44995</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I18" s="1">
         <v>8310266156</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L18" s="9">
         <v>215091956</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>45001</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
@@ -1328,23 +1189,21 @@
         <v>44995</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I19" s="1">
         <v>9108464458</v>
       </c>
       <c r="L19" s="9"/>
       <c r="N19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>45002</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
@@ -1353,31 +1212,29 @@
         <v>44995</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1">
         <v>7259613577</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L20" s="9">
         <v>434591205</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>45003</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
@@ -1386,31 +1243,29 @@
         <v>44995</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1">
         <v>9108464458</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L21" s="9">
         <v>215091956</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>45004</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
@@ -1419,23 +1274,21 @@
         <v>44996</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1">
         <v>8197816681</v>
       </c>
       <c r="L22" s="9"/>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>45005</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
@@ -1444,28 +1297,26 @@
         <v>44996</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I23" s="1">
         <v>9483491342</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L23" s="9">
         <v>832388342</v>
       </c>
       <c r="N23" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>45006</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
@@ -1474,31 +1325,29 @@
         <v>44996</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1">
         <v>6364132225</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>45007</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
@@ -1515,9 +1364,7 @@
       <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>45008</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
@@ -1526,26 +1373,24 @@
         <v>44998</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1">
         <v>9980423641</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L26" s="9"/>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>45009</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
@@ -1554,31 +1399,29 @@
         <v>44999</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1">
         <v>9663855462</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L27" s="9">
         <v>793718041</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>45010</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
@@ -1587,71 +1430,67 @@
         <v>44999</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I28" s="1">
         <v>9886410873</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L28" s="9">
         <v>484406818</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>45011</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="F29" s="12">
         <v>44999</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I29" s="1">
         <v>9901909968</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L29" s="9">
         <v>434591205</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>45012</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="F30" s="12">
         <v>45000</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I30" s="1">
         <v>9066431873</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K30" s="12">
         <v>44837</v>
@@ -1660,50 +1499,46 @@
         <v>484406818</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>45013</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="F31" s="12">
         <v>45000</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I31" s="1">
         <v>8147847800</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>45014</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="F32" s="12">
         <v>45000</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I32" s="1">
         <v>9535895437</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K32" s="12">
         <v>44585</v>
@@ -1712,115 +1547,109 @@
         <v>281352289</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>45015</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="F33" s="12">
         <v>45001</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L33" s="9">
         <v>606461001</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>45016</v>
-      </c>
+      <c r="A34" s="3"/>
       <c r="F34" s="12">
         <v>45001</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9">
         <v>9902823941</v>
       </c>
       <c r="J34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>45017</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="F35" s="12">
         <v>45002</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I35" s="1">
         <v>9008477722</v>
       </c>
       <c r="J35" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L35" s="9">
         <v>787935021</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,20 +1657,20 @@
         <v>45002</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I36" s="1">
         <v>8310266156</v>
       </c>
       <c r="K36" s="15"/>
       <c r="N36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1849,31 +1678,31 @@
         <v>45002</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I37" s="1">
         <v>9663246542</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L37" s="9">
         <v>484406818</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1881,28 +1710,28 @@
         <v>45003</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I38" s="1">
         <v>6362107789</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,31 +1739,31 @@
         <v>45003</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I39" s="1">
         <v>8217256161</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L39" s="9">
         <v>482093684</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,31 +1776,31 @@
         <v>45005</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1">
         <v>8147103645</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="L41">
         <v>727399044</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1979,31 +1808,31 @@
         <v>45005</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I42" s="1">
         <v>9513149582</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L42">
         <v>502956122</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2011,31 +1840,71 @@
         <v>45005</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I43" s="1">
         <v>7411182883</v>
       </c>
       <c r="J43" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L43">
         <v>662531945</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="12">
+        <v>45006</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="12">
+        <v>45006</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="1">
+        <v>9164413228</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45">
+        <v>255121246</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dailylog.xlsx
+++ b/dailylog.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITS2023\gitcolab\ITSSWREPO\dailylog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6397479-BF03-4855-B64B-EEFF0B81A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE97BB-719D-4083-B242-6E4B7FD34276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -353,6 +366,143 @@
   </si>
   <si>
     <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Srihari Lab</t>
+  </si>
+  <si>
+    <t>Doddaballapur</t>
+  </si>
+  <si>
+    <t>Easylab V7 Demo</t>
+  </si>
+  <si>
+    <t>Shree Ganesh diagnostics</t>
+  </si>
+  <si>
+    <t>Gowripet Kolar 563101</t>
+  </si>
+  <si>
+    <t>30-02-23</t>
+  </si>
+  <si>
+    <t>Manunath Children Hospital</t>
+  </si>
+  <si>
+    <t>District Hospital Chitradurga</t>
+  </si>
+  <si>
+    <t>Chitradurga</t>
+  </si>
+  <si>
+    <t>31-01-2018 V9</t>
+  </si>
+  <si>
+    <t>31-01-2018 V9 C</t>
+  </si>
+  <si>
+    <t>Data clear &amp; perform clear (Main)</t>
+  </si>
+  <si>
+    <t>Data clear &amp; perform clear (Client)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Janani Scans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shiva Ganesha Circle, Chickballapura Road
+                                             Vijayapura - 562135</t>
+  </si>
+  <si>
+    <t>04/05/2022 V9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Report problem</t>
+  </si>
+  <si>
+    <t>Ventur Diagnostics</t>
+  </si>
+  <si>
+    <t>Sign adding and test ordering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  01-01-2017 V9</t>
+  </si>
+  <si>
+    <t>Beside J.P. Hospital Road, Nelamangala-562123</t>
+  </si>
+  <si>
+    <t>Life Care Diagnostics</t>
+  </si>
+  <si>
+    <t>V9 installation and Report Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99271 70748 </t>
+  </si>
+  <si>
+    <t>Amroha Delhi Road. Uttarpradesh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31-03-2023 V9</t>
+  </si>
+  <si>
+    <t>V9 data clear</t>
+  </si>
+  <si>
+    <t>Jayanagar, Bengaluru 56070</t>
+  </si>
+  <si>
+    <t>01-04-2017 V9</t>
+  </si>
+  <si>
+    <t>Anand Clinical Lab</t>
+  </si>
+  <si>
+    <t>Kushi Diagnostics</t>
+  </si>
+  <si>
+    <t>Data clear &amp; Client S/M connection</t>
+  </si>
+  <si>
+    <t>02-04-2021 V7</t>
+  </si>
+  <si>
+    <t>Srinagar Banglore - 560 050</t>
+  </si>
+  <si>
+    <t>H K Hospital</t>
+  </si>
+  <si>
+    <t>Client  s/m problem</t>
+  </si>
+  <si>
+    <t>KENGERI,
+           BANGALORE - 560 060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ana Diagnostics and Clinic</t>
+  </si>
+  <si>
+    <t>Sign adding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tumkur</t>
+  </si>
+  <si>
+    <t>KIRAN DIAGNOSTIC</t>
+  </si>
+  <si>
+    <t>TURUVANOOR RAOD,CHITRADURGA-577501.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05-11-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irfaan UttaraPradesh</t>
+  </si>
+  <si>
+    <t>UttaraPradesh</t>
   </si>
 </sst>
 </file>
@@ -374,12 +524,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -398,6 +550,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,9 +620,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +853,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="H50" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,20 +867,18 @@
     <col min="4" max="4" width="25.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="9" max="9" width="19" style="9" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="9" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="9"/>
-      <c r="G1"/>
-      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -726,7 +888,7 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -762,8 +924,6 @@
       <c r="F3" s="12">
         <v>44986</v>
       </c>
-      <c r="G3"/>
-      <c r="L3" s="9"/>
       <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
@@ -779,8 +939,6 @@
       <c r="F4" s="12">
         <v>44987</v>
       </c>
-      <c r="G4"/>
-      <c r="L4" s="9"/>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
@@ -796,7 +954,7 @@
       <c r="F5" s="12">
         <v>44988</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -826,7 +984,7 @@
       <c r="F6" s="12">
         <v>44989</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I6" s="1">
@@ -856,9 +1014,7 @@
       <c r="F7" s="12">
         <v>44990</v>
       </c>
-      <c r="G7"/>
       <c r="I7" s="1"/>
-      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -868,7 +1024,7 @@
       <c r="F8" s="12">
         <v>44991</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1">
@@ -898,7 +1054,7 @@
       <c r="F9" s="12">
         <v>44992</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="1">
@@ -931,7 +1087,7 @@
       <c r="F10" s="12">
         <v>44992</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -958,7 +1114,7 @@
       <c r="F11" s="12">
         <v>44992</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="1">
@@ -988,7 +1144,7 @@
       <c r="F12" s="12">
         <v>44993</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="1">
@@ -1018,7 +1174,7 @@
       <c r="F13" s="12">
         <v>44993</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="1">
@@ -1048,7 +1204,7 @@
       <c r="F14" s="12">
         <v>44993</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="1">
@@ -1075,7 +1231,7 @@
       <c r="F15" s="12">
         <v>44993</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="1">
@@ -1105,7 +1261,7 @@
       <c r="F16" s="12">
         <v>44994</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1">
@@ -1135,7 +1291,7 @@
       <c r="F17" s="12">
         <v>44995</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="1">
@@ -1144,7 +1300,6 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="9"/>
       <c r="O17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1312,7 @@
       <c r="F18" s="12">
         <v>44995</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="1">
@@ -1188,13 +1343,12 @@
       <c r="F19" s="12">
         <v>44995</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="1">
         <v>9108464458</v>
       </c>
-      <c r="L19" s="9"/>
       <c r="N19" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1365,7 @@
       <c r="F20" s="12">
         <v>44995</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="1">
@@ -1242,7 +1396,7 @@
       <c r="F21" s="12">
         <v>44995</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="1">
@@ -1273,13 +1427,12 @@
       <c r="F22" s="12">
         <v>44996</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="1">
         <v>8197816681</v>
       </c>
-      <c r="L22" s="9"/>
       <c r="N22" t="s">
         <v>29</v>
       </c>
@@ -1296,7 +1449,7 @@
       <c r="F23" s="12">
         <v>44996</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="1">
@@ -1324,7 +1477,7 @@
       <c r="F24" s="12">
         <v>44996</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="1">
@@ -1355,8 +1508,8 @@
       <c r="F25" s="12">
         <v>44997</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="13"/>
       <c r="L25" s="14"/>
       <c r="M25" s="13"/>
@@ -1372,7 +1525,7 @@
       <c r="F26" s="12">
         <v>44998</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I26" s="1">
@@ -1381,7 +1534,6 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="9"/>
       <c r="N26" t="s">
         <v>50</v>
       </c>
@@ -1398,7 +1550,7 @@
       <c r="F27" s="12">
         <v>44999</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I27" s="1">
@@ -1429,7 +1581,7 @@
       <c r="F28" s="12">
         <v>44999</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="1">
@@ -1456,7 +1608,7 @@
       <c r="F29" s="12">
         <v>44999</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="1">
@@ -1483,7 +1635,7 @@
       <c r="F30" s="12">
         <v>45000</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I30" s="1">
@@ -1510,7 +1662,7 @@
       <c r="F31" s="12">
         <v>45000</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="1">
@@ -1531,7 +1683,7 @@
       <c r="F32" s="12">
         <v>45000</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="7" t="s">
         <v>60</v>
       </c>
       <c r="I32" s="1">
@@ -1561,7 +1713,7 @@
       <c r="F33" s="12">
         <v>45001</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="7" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="13" t="s">
@@ -1594,7 +1746,7 @@
       <c r="F34" s="12">
         <v>45001</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H34" s="13" t="s">
@@ -1606,7 +1758,7 @@
       <c r="J34" t="s">
         <v>47</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="12" t="s">
         <v>75</v>
       </c>
       <c r="M34" t="s">
@@ -1636,7 +1788,7 @@
       <c r="J35" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L35" s="9">
@@ -1665,7 +1817,7 @@
       <c r="I36" s="1">
         <v>8310266156</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="12"/>
       <c r="N36" t="s">
         <v>78</v>
       </c>
@@ -1689,7 +1841,7 @@
       <c r="J37" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L37" s="9">
@@ -1721,7 +1873,7 @@
       <c r="J38" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="12" t="s">
         <v>86</v>
       </c>
       <c r="M38" t="s">
@@ -1741,7 +1893,7 @@
       <c r="G39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>90</v>
       </c>
       <c r="I39" s="1">
@@ -1750,7 +1902,7 @@
       <c r="J39" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="12" t="s">
         <v>89</v>
       </c>
       <c r="L39" s="9">
@@ -1787,10 +1939,10 @@
       <c r="J41" t="s">
         <v>47</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="9">
         <v>727399044</v>
       </c>
       <c r="M41" t="s">
@@ -1819,10 +1971,10 @@
       <c r="J42" t="s">
         <v>47</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K42" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="9">
         <v>502956122</v>
       </c>
       <c r="M42" t="s">
@@ -1851,10 +2003,10 @@
       <c r="J43" t="s">
         <v>47</v>
       </c>
-      <c r="K43" s="15" t="s">
+      <c r="K43" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="9">
         <v>662531945</v>
       </c>
       <c r="M43" t="s">
@@ -1880,7 +2032,7 @@
         <v>45006</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>103</v>
@@ -1891,10 +2043,10 @@
       <c r="J45" t="s">
         <v>47</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="9">
         <v>255121246</v>
       </c>
       <c r="M45" t="s">
@@ -1905,6 +2057,611 @@
       </c>
       <c r="O45" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="12">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="12">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="12">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="12">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="12">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="12">
+        <v>45012</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="9">
+        <v>9620019183</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="9">
+        <v>513724201</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" t="s">
+        <v>109</v>
+      </c>
+      <c r="O51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="12">
+        <v>45012</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+      <c r="O52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="12">
+        <v>45013</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="9">
+        <v>9972945494</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="9">
+        <v>39094553</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="12">
+        <v>45013</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="9">
+        <v>9972945494</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="9">
+        <v>535065175</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="12">
+        <v>45013</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="9">
+        <v>9972945494</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L55" s="9">
+        <v>621825829</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" t="s">
+        <v>119</v>
+      </c>
+      <c r="O55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="12">
+        <v>45013</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="9">
+        <v>9113982197</v>
+      </c>
+      <c r="J56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L56" s="9">
+        <v>280535515</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" t="s">
+        <v>123</v>
+      </c>
+      <c r="O56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="12">
+        <v>45014</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="12">
+        <v>45014</v>
+      </c>
+      <c r="J58" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="12">
+        <v>45014</v>
+      </c>
+      <c r="J59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="12">
+        <v>45015</v>
+      </c>
+      <c r="J60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="12">
+        <v>45015</v>
+      </c>
+      <c r="J61" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="12">
+        <v>45015</v>
+      </c>
+      <c r="J62" t="s">
+        <v>47</v>
+      </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="12">
+        <v>45015</v>
+      </c>
+      <c r="J63" t="s">
+        <v>47</v>
+      </c>
+      <c r="M63" t="s">
+        <v>14</v>
+      </c>
+      <c r="O63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="12">
+        <v>45015</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="9">
+        <v>9927170748</v>
+      </c>
+      <c r="J64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="12">
+        <v>45015</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="9">
+        <v>9113035472</v>
+      </c>
+      <c r="J65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="12">
+        <v>43773</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="12">
+        <v>45015</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" s="9">
+        <v>8050054748</v>
+      </c>
+      <c r="J66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="12">
+        <v>45015</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="9">
+        <v>990037486</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="O67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="12">
+        <v>45016</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I68" s="9">
+        <v>9036615800</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="12">
+        <v>45016</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="12">
+        <v>45016</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" s="9">
+        <v>9900564277</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="12">
+        <v>45016</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I71" s="9">
+        <v>7090025333</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="12">
+        <v>45016</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="12">
+        <v>45016</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="12">
+        <v>45031</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="12">
+        <v>45032</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="12">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="77" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="12">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="78" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="12">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="79" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="12">
+        <v>45036</v>
       </c>
     </row>
   </sheetData>
